--- a/data/data_raw/eurostat/AT_electricity_fuel_type_nrg_cb_pem.xlsx
+++ b/data/data_raw/eurostat/AT_electricity_fuel_type_nrg_cb_pem.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CW22"/>
+  <dimension ref="A1:CX22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -934,6 +934,11 @@
           <t>2023-12</t>
         </is>
       </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>2024-01</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1246,6 +1251,9 @@
       </c>
       <c r="CW2" t="n">
         <v>6496.213</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>7240.023</v>
       </c>
     </row>
     <row r="3">
@@ -1559,6 +1567,9 @@
       </c>
       <c r="CW3" t="n">
         <v>1517.509</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>1757.957</v>
       </c>
     </row>
     <row r="4">
@@ -1849,6 +1860,9 @@
       <c r="CW4" t="n">
         <v>244.387</v>
       </c>
+      <c r="CX4" t="n">
+        <v>241.363</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -2138,6 +2152,9 @@
       <c r="CW5" t="n">
         <v>52.387</v>
       </c>
+      <c r="CX5" t="n">
+        <v>56.007</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -2427,6 +2444,9 @@
       <c r="CW6" t="n">
         <v>158.347</v>
       </c>
+      <c r="CX6" t="n">
+        <v>162.18</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -2716,6 +2736,9 @@
       <c r="CW7" t="n">
         <v>1000.209</v>
       </c>
+      <c r="CX7" t="n">
+        <v>1233.46</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -3005,6 +3028,9 @@
       <c r="CW8" t="n">
         <v>62.179</v>
       </c>
+      <c r="CX8" t="n">
+        <v>64.947</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -3317,6 +3343,9 @@
       </c>
       <c r="CW9" t="n">
         <v>3817.516</v>
+      </c>
+      <c r="CX9" t="n">
+        <v>3806.078</v>
       </c>
     </row>
     <row r="10">
@@ -3607,6 +3636,9 @@
       <c r="CW10" t="n">
         <v>2605.273</v>
       </c>
+      <c r="CX10" t="n">
+        <v>2414.931</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -3896,6 +3928,9 @@
       <c r="CW11" t="n">
         <v>1212.243</v>
       </c>
+      <c r="CX11" t="n">
+        <v>1391.147</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -4185,6 +4220,9 @@
       <c r="CW12" t="n">
         <v>0</v>
       </c>
+      <c r="CX12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -4498,6 +4536,9 @@
       <c r="CW13" t="n">
         <v>0</v>
       </c>
+      <c r="CX13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -4810,6 +4851,9 @@
       </c>
       <c r="CW14" t="n">
         <v>803.453</v>
+      </c>
+      <c r="CX14" t="n">
+        <v>1119.29</v>
       </c>
     </row>
     <row r="15">
@@ -5100,6 +5144,9 @@
       <c r="CW15" t="n">
         <v>803.453</v>
       </c>
+      <c r="CX15" t="n">
+        <v>1119.29</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -5389,6 +5436,9 @@
       <c r="CW16" t="n">
         <v>0</v>
       </c>
+      <c r="CX16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -5678,6 +5728,9 @@
       <c r="CW17" t="n">
         <v>0</v>
       </c>
+      <c r="CX17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -5967,6 +6020,9 @@
       <c r="CW18" t="n">
         <v>0</v>
       </c>
+      <c r="CX18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -6256,6 +6312,9 @@
       <c r="CW19" t="n">
         <v>0</v>
       </c>
+      <c r="CX19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -6545,6 +6604,9 @@
       <c r="CW20" t="n">
         <v>0</v>
       </c>
+      <c r="CX20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -6856,6 +6918,9 @@
         <v>0</v>
       </c>
       <c r="CW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7147,6 +7212,9 @@
       <c r="CW22" t="n">
         <v>357.734</v>
       </c>
+      <c r="CX22" t="n">
+        <v>556.698</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/data_raw/eurostat/AT_electricity_fuel_type_nrg_cb_pem.xlsx
+++ b/data/data_raw/eurostat/AT_electricity_fuel_type_nrg_cb_pem.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CX22"/>
+  <dimension ref="A1:CY22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -939,6 +939,11 @@
           <t>2024-01</t>
         </is>
       </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>2024-02</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1254,6 +1259,9 @@
       </c>
       <c r="CX2" t="n">
         <v>7240.023</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>5938.472</v>
       </c>
     </row>
     <row r="3">
@@ -1570,6 +1578,9 @@
       </c>
       <c r="CX3" t="n">
         <v>1757.957</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>1172.919</v>
       </c>
     </row>
     <row r="4">
@@ -1863,6 +1874,9 @@
       <c r="CX4" t="n">
         <v>241.363</v>
       </c>
+      <c r="CY4" t="n">
+        <v>231.252</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -2155,6 +2169,9 @@
       <c r="CX5" t="n">
         <v>56.007</v>
       </c>
+      <c r="CY5" t="n">
+        <v>47.985</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -2447,6 +2464,9 @@
       <c r="CX6" t="n">
         <v>162.18</v>
       </c>
+      <c r="CY6" t="n">
+        <v>147.654</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -2739,6 +2759,9 @@
       <c r="CX7" t="n">
         <v>1233.46</v>
       </c>
+      <c r="CY7" t="n">
+        <v>685.603</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -3031,6 +3054,9 @@
       <c r="CX8" t="n">
         <v>64.947</v>
       </c>
+      <c r="CY8" t="n">
+        <v>60.425</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -3346,6 +3372,9 @@
       </c>
       <c r="CX9" t="n">
         <v>3806.078</v>
+      </c>
+      <c r="CY9" t="n">
+        <v>3172.297</v>
       </c>
     </row>
     <row r="10">
@@ -3639,6 +3668,9 @@
       <c r="CX10" t="n">
         <v>2414.931</v>
       </c>
+      <c r="CY10" t="n">
+        <v>2122.87</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -3931,6 +3963,9 @@
       <c r="CX11" t="n">
         <v>1391.147</v>
       </c>
+      <c r="CY11" t="n">
+        <v>1049.428</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -4223,6 +4258,9 @@
       <c r="CX12" t="n">
         <v>0</v>
       </c>
+      <c r="CY12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -4539,6 +4577,9 @@
       <c r="CX13" t="n">
         <v>0</v>
       </c>
+      <c r="CY13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -4854,6 +4895,9 @@
       </c>
       <c r="CX14" t="n">
         <v>1119.29</v>
+      </c>
+      <c r="CY14" t="n">
+        <v>974.7859999999999</v>
       </c>
     </row>
     <row r="15">
@@ -5147,6 +5191,9 @@
       <c r="CX15" t="n">
         <v>1119.29</v>
       </c>
+      <c r="CY15" t="n">
+        <v>974.7859999999999</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -5439,6 +5486,9 @@
       <c r="CX16" t="n">
         <v>0</v>
       </c>
+      <c r="CY16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -5731,6 +5781,9 @@
       <c r="CX17" t="n">
         <v>0</v>
       </c>
+      <c r="CY17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -6023,6 +6076,9 @@
       <c r="CX18" t="n">
         <v>0</v>
       </c>
+      <c r="CY18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -6315,6 +6371,9 @@
       <c r="CX19" t="n">
         <v>0</v>
       </c>
+      <c r="CY19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -6607,6 +6666,9 @@
       <c r="CX20" t="n">
         <v>0</v>
       </c>
+      <c r="CY20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -6921,6 +6983,9 @@
         <v>0</v>
       </c>
       <c r="CX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7215,6 +7280,9 @@
       <c r="CX22" t="n">
         <v>556.698</v>
       </c>
+      <c r="CY22" t="n">
+        <v>618.47</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/data_raw/eurostat/AT_electricity_fuel_type_nrg_cb_pem.xlsx
+++ b/data/data_raw/eurostat/AT_electricity_fuel_type_nrg_cb_pem.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CY22"/>
+  <dimension ref="A1:CZ22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -944,6 +944,11 @@
           <t>2024-02</t>
         </is>
       </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1263,6 +1268,7 @@
       <c r="CY2" t="n">
         <v>5938.472</v>
       </c>
+      <c r="CZ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1582,6 +1588,7 @@
       <c r="CY3" t="n">
         <v>1172.919</v>
       </c>
+      <c r="CZ3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -1877,6 +1884,7 @@
       <c r="CY4" t="n">
         <v>231.252</v>
       </c>
+      <c r="CZ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -2172,6 +2180,7 @@
       <c r="CY5" t="n">
         <v>47.985</v>
       </c>
+      <c r="CZ5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -2467,6 +2476,7 @@
       <c r="CY6" t="n">
         <v>147.654</v>
       </c>
+      <c r="CZ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -2762,6 +2772,7 @@
       <c r="CY7" t="n">
         <v>685.603</v>
       </c>
+      <c r="CZ7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -3057,6 +3068,7 @@
       <c r="CY8" t="n">
         <v>60.425</v>
       </c>
+      <c r="CZ8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -3376,6 +3388,7 @@
       <c r="CY9" t="n">
         <v>3172.297</v>
       </c>
+      <c r="CZ9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -3671,6 +3684,7 @@
       <c r="CY10" t="n">
         <v>2122.87</v>
       </c>
+      <c r="CZ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -3966,6 +3980,7 @@
       <c r="CY11" t="n">
         <v>1049.428</v>
       </c>
+      <c r="CZ11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -4261,6 +4276,7 @@
       <c r="CY12" t="n">
         <v>0</v>
       </c>
+      <c r="CZ12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -4580,6 +4596,7 @@
       <c r="CY13" t="n">
         <v>0</v>
       </c>
+      <c r="CZ13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -4899,6 +4916,7 @@
       <c r="CY14" t="n">
         <v>974.7859999999999</v>
       </c>
+      <c r="CZ14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -5194,6 +5212,7 @@
       <c r="CY15" t="n">
         <v>974.7859999999999</v>
       </c>
+      <c r="CZ15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -5489,6 +5508,7 @@
       <c r="CY16" t="n">
         <v>0</v>
       </c>
+      <c r="CZ16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -5784,6 +5804,7 @@
       <c r="CY17" t="n">
         <v>0</v>
       </c>
+      <c r="CZ17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -6079,6 +6100,7 @@
       <c r="CY18" t="n">
         <v>0</v>
       </c>
+      <c r="CZ18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -6374,6 +6396,7 @@
       <c r="CY19" t="n">
         <v>0</v>
       </c>
+      <c r="CZ19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -6669,6 +6692,7 @@
       <c r="CY20" t="n">
         <v>0</v>
       </c>
+      <c r="CZ20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -6988,6 +7012,7 @@
       <c r="CY21" t="n">
         <v>0</v>
       </c>
+      <c r="CZ21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -7283,6 +7308,7 @@
       <c r="CY22" t="n">
         <v>618.47</v>
       </c>
+      <c r="CZ22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/data_raw/eurostat/AT_electricity_fuel_type_nrg_cb_pem.xlsx
+++ b/data/data_raw/eurostat/AT_electricity_fuel_type_nrg_cb_pem.xlsx
@@ -1268,7 +1268,9 @@
       <c r="CY2" t="n">
         <v>5938.472</v>
       </c>
-      <c r="CZ2" t="inlineStr"/>
+      <c r="CZ2" t="n">
+        <v>6099.192</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1588,7 +1590,9 @@
       <c r="CY3" t="n">
         <v>1172.919</v>
       </c>
-      <c r="CZ3" t="inlineStr"/>
+      <c r="CZ3" t="n">
+        <v>1121.16</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -1884,7 +1888,9 @@
       <c r="CY4" t="n">
         <v>231.252</v>
       </c>
-      <c r="CZ4" t="inlineStr"/>
+      <c r="CZ4" t="n">
+        <v>259.935</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -2180,7 +2186,9 @@
       <c r="CY5" t="n">
         <v>47.985</v>
       </c>
-      <c r="CZ5" t="inlineStr"/>
+      <c r="CZ5" t="n">
+        <v>50.622</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -2476,7 +2484,9 @@
       <c r="CY6" t="n">
         <v>147.654</v>
       </c>
-      <c r="CZ6" t="inlineStr"/>
+      <c r="CZ6" t="n">
+        <v>176.641</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -2772,7 +2782,9 @@
       <c r="CY7" t="n">
         <v>685.603</v>
       </c>
-      <c r="CZ7" t="inlineStr"/>
+      <c r="CZ7" t="n">
+        <v>579.905</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -3068,7 +3080,9 @@
       <c r="CY8" t="n">
         <v>60.425</v>
       </c>
-      <c r="CZ8" t="inlineStr"/>
+      <c r="CZ8" t="n">
+        <v>54.058</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -3388,7 +3402,9 @@
       <c r="CY9" t="n">
         <v>3172.297</v>
       </c>
-      <c r="CZ9" t="inlineStr"/>
+      <c r="CZ9" t="n">
+        <v>3170.943</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -3684,7 +3700,9 @@
       <c r="CY10" t="n">
         <v>2122.87</v>
       </c>
-      <c r="CZ10" t="inlineStr"/>
+      <c r="CZ10" t="n">
+        <v>2100.346</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -3980,7 +3998,9 @@
       <c r="CY11" t="n">
         <v>1049.428</v>
       </c>
-      <c r="CZ11" t="inlineStr"/>
+      <c r="CZ11" t="n">
+        <v>1070.597</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -4276,7 +4296,9 @@
       <c r="CY12" t="n">
         <v>0</v>
       </c>
-      <c r="CZ12" t="inlineStr"/>
+      <c r="CZ12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -4596,7 +4618,9 @@
       <c r="CY13" t="n">
         <v>0</v>
       </c>
-      <c r="CZ13" t="inlineStr"/>
+      <c r="CZ13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -4916,7 +4940,9 @@
       <c r="CY14" t="n">
         <v>974.7859999999999</v>
       </c>
-      <c r="CZ14" t="inlineStr"/>
+      <c r="CZ14" t="n">
+        <v>1031.621</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -5212,7 +5238,9 @@
       <c r="CY15" t="n">
         <v>974.7859999999999</v>
       </c>
-      <c r="CZ15" t="inlineStr"/>
+      <c r="CZ15" t="n">
+        <v>1031.621</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -5508,7 +5536,9 @@
       <c r="CY16" t="n">
         <v>0</v>
       </c>
-      <c r="CZ16" t="inlineStr"/>
+      <c r="CZ16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -5804,7 +5834,9 @@
       <c r="CY17" t="n">
         <v>0</v>
       </c>
-      <c r="CZ17" t="inlineStr"/>
+      <c r="CZ17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -6100,7 +6132,9 @@
       <c r="CY18" t="n">
         <v>0</v>
       </c>
-      <c r="CZ18" t="inlineStr"/>
+      <c r="CZ18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -6396,7 +6430,9 @@
       <c r="CY19" t="n">
         <v>0</v>
       </c>
-      <c r="CZ19" t="inlineStr"/>
+      <c r="CZ19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -6692,7 +6728,9 @@
       <c r="CY20" t="n">
         <v>0</v>
       </c>
-      <c r="CZ20" t="inlineStr"/>
+      <c r="CZ20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -7012,7 +7050,9 @@
       <c r="CY21" t="n">
         <v>0</v>
       </c>
-      <c r="CZ21" t="inlineStr"/>
+      <c r="CZ21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -7308,7 +7348,9 @@
       <c r="CY22" t="n">
         <v>618.47</v>
       </c>
-      <c r="CZ22" t="inlineStr"/>
+      <c r="CZ22" t="n">
+        <v>775.468</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/data_raw/eurostat/AT_electricity_fuel_type_nrg_cb_pem.xlsx
+++ b/data/data_raw/eurostat/AT_electricity_fuel_type_nrg_cb_pem.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DE46"/>
+  <dimension ref="A1:DI46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -974,6 +974,26 @@
           <t>2024-08</t>
         </is>
       </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>2024-10</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>2024-11</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>2024-12</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1308,7 +1328,17 @@
       <c r="DD2" t="n">
         <v>6942.193</v>
       </c>
-      <c r="DE2" t="inlineStr"/>
+      <c r="DE2" t="n">
+        <v>5598.074</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>5853.403</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>6884.949</v>
+      </c>
+      <c r="DH2" t="inlineStr"/>
+      <c r="DI2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1643,7 +1673,17 @@
       <c r="DD3" t="n">
         <v>569.693</v>
       </c>
-      <c r="DE3" t="inlineStr"/>
+      <c r="DE3" t="n">
+        <v>580.23</v>
+      </c>
+      <c r="DF3" t="n">
+        <v>553.946</v>
+      </c>
+      <c r="DG3" t="n">
+        <v>864.198</v>
+      </c>
+      <c r="DH3" t="inlineStr"/>
+      <c r="DI3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -1978,7 +2018,17 @@
       <c r="DD4" t="n">
         <v>8.206</v>
       </c>
-      <c r="DE4" t="inlineStr"/>
+      <c r="DE4" t="n">
+        <v>10.365</v>
+      </c>
+      <c r="DF4" t="n">
+        <v>9.464</v>
+      </c>
+      <c r="DG4" t="n">
+        <v>12.552</v>
+      </c>
+      <c r="DH4" t="inlineStr"/>
+      <c r="DI4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -2289,7 +2339,17 @@
       <c r="DD5" t="n">
         <v>221.482</v>
       </c>
-      <c r="DE5" t="inlineStr"/>
+      <c r="DE5" t="n">
+        <v>225.979</v>
+      </c>
+      <c r="DF5" t="n">
+        <v>197.723</v>
+      </c>
+      <c r="DG5" t="n">
+        <v>187.677</v>
+      </c>
+      <c r="DH5" t="inlineStr"/>
+      <c r="DI5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -2600,7 +2660,17 @@
       <c r="DD6" t="n">
         <v>3.19</v>
       </c>
-      <c r="DE6" t="inlineStr"/>
+      <c r="DE6" t="n">
+        <v>4.037</v>
+      </c>
+      <c r="DF6" t="n">
+        <v>3.378</v>
+      </c>
+      <c r="DG6" t="n">
+        <v>2.726</v>
+      </c>
+      <c r="DH6" t="inlineStr"/>
+      <c r="DI6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -2911,7 +2981,17 @@
       <c r="DD7" t="n">
         <v>49.583</v>
       </c>
-      <c r="DE7" t="inlineStr"/>
+      <c r="DE7" t="n">
+        <v>44.571</v>
+      </c>
+      <c r="DF7" t="n">
+        <v>33.974</v>
+      </c>
+      <c r="DG7" t="n">
+        <v>54.479</v>
+      </c>
+      <c r="DH7" t="inlineStr"/>
+      <c r="DI7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -3222,7 +3302,17 @@
       <c r="DD8" t="n">
         <v>0.714</v>
       </c>
-      <c r="DE8" t="inlineStr"/>
+      <c r="DE8" t="n">
+        <v>0.796</v>
+      </c>
+      <c r="DF8" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="DG8" t="n">
+        <v>0.791</v>
+      </c>
+      <c r="DH8" t="inlineStr"/>
+      <c r="DI8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -3533,7 +3623,17 @@
       <c r="DD9" t="n">
         <v>168.579</v>
       </c>
-      <c r="DE9" t="inlineStr"/>
+      <c r="DE9" t="n">
+        <v>134.241</v>
+      </c>
+      <c r="DF9" t="n">
+        <v>109.58</v>
+      </c>
+      <c r="DG9" t="n">
+        <v>104.517</v>
+      </c>
+      <c r="DH9" t="inlineStr"/>
+      <c r="DI9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -3844,7 +3944,17 @@
       <c r="DD10" t="n">
         <v>2.428</v>
       </c>
-      <c r="DE10" t="inlineStr"/>
+      <c r="DE10" t="n">
+        <v>2.398</v>
+      </c>
+      <c r="DF10" t="n">
+        <v>1.872</v>
+      </c>
+      <c r="DG10" t="n">
+        <v>1.518</v>
+      </c>
+      <c r="DH10" t="inlineStr"/>
+      <c r="DI10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -4155,7 +4265,17 @@
       <c r="DD11" t="n">
         <v>82.47199999999999</v>
       </c>
-      <c r="DE11" t="inlineStr"/>
+      <c r="DE11" t="n">
+        <v>133.147</v>
+      </c>
+      <c r="DF11" t="n">
+        <v>172.103</v>
+      </c>
+      <c r="DG11" t="n">
+        <v>463.556</v>
+      </c>
+      <c r="DH11" t="inlineStr"/>
+      <c r="DI11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -4466,7 +4586,17 @@
       <c r="DD12" t="n">
         <v>1.188</v>
       </c>
-      <c r="DE12" t="inlineStr"/>
+      <c r="DE12" t="n">
+        <v>2.378</v>
+      </c>
+      <c r="DF12" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="DG12" t="n">
+        <v>6.733</v>
+      </c>
+      <c r="DH12" t="inlineStr"/>
+      <c r="DI12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -4777,7 +4907,17 @@
       <c r="DD13" t="n">
         <v>47.577</v>
       </c>
-      <c r="DE13" t="inlineStr"/>
+      <c r="DE13" t="n">
+        <v>42.292</v>
+      </c>
+      <c r="DF13" t="n">
+        <v>40.565</v>
+      </c>
+      <c r="DG13" t="n">
+        <v>53.968</v>
+      </c>
+      <c r="DH13" t="inlineStr"/>
+      <c r="DI13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -5088,7 +5228,17 @@
       <c r="DD14" t="n">
         <v>0.6850000000000001</v>
       </c>
-      <c r="DE14" t="inlineStr"/>
+      <c r="DE14" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="DF14" t="n">
+        <v>0.6929999999999999</v>
+      </c>
+      <c r="DG14" t="n">
+        <v>0.784</v>
+      </c>
+      <c r="DH14" t="inlineStr"/>
+      <c r="DI14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -5399,7 +5549,17 @@
       <c r="DD15" t="n">
         <v>5400.274</v>
       </c>
-      <c r="DE15" t="inlineStr"/>
+      <c r="DE15" t="n">
+        <v>4188.501</v>
+      </c>
+      <c r="DF15" t="n">
+        <v>4582.548</v>
+      </c>
+      <c r="DG15" t="n">
+        <v>5331.12</v>
+      </c>
+      <c r="DH15" t="inlineStr"/>
+      <c r="DI15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -5710,7 +5870,17 @@
       <c r="DD16" t="n">
         <v>77.789</v>
       </c>
-      <c r="DE16" t="inlineStr"/>
+      <c r="DE16" t="n">
+        <v>74.81999999999999</v>
+      </c>
+      <c r="DF16" t="n">
+        <v>78.289</v>
+      </c>
+      <c r="DG16" t="n">
+        <v>77.432</v>
+      </c>
+      <c r="DH16" t="inlineStr"/>
+      <c r="DI16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -6045,7 +6215,17 @@
       <c r="DD17" t="n">
         <v>4671.488</v>
       </c>
-      <c r="DE17" t="inlineStr"/>
+      <c r="DE17" t="n">
+        <v>3560.84</v>
+      </c>
+      <c r="DF17" t="n">
+        <v>3576.239</v>
+      </c>
+      <c r="DG17" t="n">
+        <v>4410.12</v>
+      </c>
+      <c r="DH17" t="inlineStr"/>
+      <c r="DI17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -6380,7 +6560,17 @@
       <c r="DD18" t="n">
         <v>67.291</v>
       </c>
-      <c r="DE18" t="inlineStr"/>
+      <c r="DE18" t="n">
+        <v>63.608</v>
+      </c>
+      <c r="DF18" t="n">
+        <v>61.097</v>
+      </c>
+      <c r="DG18" t="n">
+        <v>64.054</v>
+      </c>
+      <c r="DH18" t="inlineStr"/>
+      <c r="DI18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -6691,7 +6881,17 @@
       <c r="DD19" t="n">
         <v>2859.226</v>
       </c>
-      <c r="DE19" t="inlineStr"/>
+      <c r="DE19" t="n">
+        <v>2198.536</v>
+      </c>
+      <c r="DF19" t="n">
+        <v>2342.756</v>
+      </c>
+      <c r="DG19" t="n">
+        <v>2835.644</v>
+      </c>
+      <c r="DH19" t="inlineStr"/>
+      <c r="DI19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -7002,7 +7202,17 @@
       <c r="DD20" t="n">
         <v>41.186</v>
       </c>
-      <c r="DE20" t="inlineStr"/>
+      <c r="DE20" t="n">
+        <v>39.273</v>
+      </c>
+      <c r="DF20" t="n">
+        <v>40.024</v>
+      </c>
+      <c r="DG20" t="n">
+        <v>41.186</v>
+      </c>
+      <c r="DH20" t="inlineStr"/>
+      <c r="DI20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -7313,7 +7523,17 @@
       <c r="DD21" t="n">
         <v>1812.262</v>
       </c>
-      <c r="DE21" t="inlineStr"/>
+      <c r="DE21" t="n">
+        <v>1362.305</v>
+      </c>
+      <c r="DF21" t="n">
+        <v>1233.483</v>
+      </c>
+      <c r="DG21" t="n">
+        <v>1574.476</v>
+      </c>
+      <c r="DH21" t="inlineStr"/>
+      <c r="DI21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -7624,7 +7844,17 @@
       <c r="DD22" t="n">
         <v>26.105</v>
       </c>
-      <c r="DE22" t="inlineStr"/>
+      <c r="DE22" t="n">
+        <v>24.335</v>
+      </c>
+      <c r="DF22" t="n">
+        <v>21.073</v>
+      </c>
+      <c r="DG22" t="n">
+        <v>22.868</v>
+      </c>
+      <c r="DH22" t="inlineStr"/>
+      <c r="DI22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -7935,7 +8165,17 @@
       <c r="DD23" t="n">
         <v>0</v>
       </c>
-      <c r="DE23" t="inlineStr"/>
+      <c r="DE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH23" t="inlineStr"/>
+      <c r="DI23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -8246,7 +8486,17 @@
       <c r="DD24" t="n">
         <v>0</v>
       </c>
-      <c r="DE24" t="inlineStr"/>
+      <c r="DE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH24" t="inlineStr"/>
+      <c r="DI24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -8581,7 +8831,17 @@
       <c r="DD25" t="n">
         <v>0</v>
       </c>
-      <c r="DE25" t="inlineStr"/>
+      <c r="DE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH25" t="inlineStr"/>
+      <c r="DI25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -8916,7 +9176,17 @@
       <c r="DD26" t="n">
         <v>0</v>
       </c>
-      <c r="DE26" t="inlineStr"/>
+      <c r="DE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH26" t="inlineStr"/>
+      <c r="DI26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -9251,7 +9521,17 @@
       <c r="DD27" t="n">
         <v>507.304</v>
       </c>
-      <c r="DE27" t="inlineStr"/>
+      <c r="DE27" t="n">
+        <v>401.682</v>
+      </c>
+      <c r="DF27" t="n">
+        <v>808.587</v>
+      </c>
+      <c r="DG27" t="n">
+        <v>733.323</v>
+      </c>
+      <c r="DH27" t="inlineStr"/>
+      <c r="DI27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -9586,7 +9866,17 @@
       <c r="DD28" t="n">
         <v>7.308</v>
       </c>
-      <c r="DE28" t="inlineStr"/>
+      <c r="DE28" t="n">
+        <v>7.175</v>
+      </c>
+      <c r="DF28" t="n">
+        <v>13.814</v>
+      </c>
+      <c r="DG28" t="n">
+        <v>10.651</v>
+      </c>
+      <c r="DH28" t="inlineStr"/>
+      <c r="DI28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -9897,7 +10187,17 @@
       <c r="DD29" t="n">
         <v>507.304</v>
       </c>
-      <c r="DE29" t="inlineStr"/>
+      <c r="DE29" t="n">
+        <v>401.682</v>
+      </c>
+      <c r="DF29" t="n">
+        <v>808.587</v>
+      </c>
+      <c r="DG29" t="n">
+        <v>733.323</v>
+      </c>
+      <c r="DH29" t="inlineStr"/>
+      <c r="DI29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -10208,7 +10508,17 @@
       <c r="DD30" t="n">
         <v>7.308</v>
       </c>
-      <c r="DE30" t="inlineStr"/>
+      <c r="DE30" t="n">
+        <v>7.175</v>
+      </c>
+      <c r="DF30" t="n">
+        <v>13.814</v>
+      </c>
+      <c r="DG30" t="n">
+        <v>10.651</v>
+      </c>
+      <c r="DH30" t="inlineStr"/>
+      <c r="DI30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -10519,7 +10829,17 @@
       <c r="DD31" t="n">
         <v>0</v>
       </c>
-      <c r="DE31" t="inlineStr"/>
+      <c r="DE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH31" t="inlineStr"/>
+      <c r="DI31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -10830,7 +11150,17 @@
       <c r="DD32" t="n">
         <v>0</v>
       </c>
-      <c r="DE32" t="inlineStr"/>
+      <c r="DE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH32" t="inlineStr"/>
+      <c r="DI32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -11141,7 +11471,17 @@
       <c r="DD33" t="n">
         <v>0</v>
       </c>
-      <c r="DE33" t="inlineStr"/>
+      <c r="DE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH33" t="inlineStr"/>
+      <c r="DI33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -11452,7 +11792,17 @@
       <c r="DD34" t="n">
         <v>0</v>
       </c>
-      <c r="DE34" t="inlineStr"/>
+      <c r="DE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF34" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG34" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH34" t="inlineStr"/>
+      <c r="DI34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -11763,7 +12113,17 @@
       <c r="DD35" t="n">
         <v>0</v>
       </c>
-      <c r="DE35" t="inlineStr"/>
+      <c r="DE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF35" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG35" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH35" t="inlineStr"/>
+      <c r="DI35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -12074,7 +12434,17 @@
       <c r="DD36" t="n">
         <v>0</v>
       </c>
-      <c r="DE36" t="inlineStr"/>
+      <c r="DE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF36" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG36" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH36" t="inlineStr"/>
+      <c r="DI36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -12385,7 +12755,17 @@
       <c r="DD37" t="n">
         <v>0</v>
       </c>
-      <c r="DE37" t="inlineStr"/>
+      <c r="DE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF37" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG37" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH37" t="inlineStr"/>
+      <c r="DI37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -12696,7 +13076,17 @@
       <c r="DD38" t="n">
         <v>0</v>
       </c>
-      <c r="DE38" t="inlineStr"/>
+      <c r="DE38" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF38" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG38" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH38" t="inlineStr"/>
+      <c r="DI38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -13007,7 +13397,17 @@
       <c r="DD39" t="n">
         <v>0</v>
       </c>
-      <c r="DE39" t="inlineStr"/>
+      <c r="DE39" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF39" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG39" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH39" t="inlineStr"/>
+      <c r="DI39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -13318,7 +13718,17 @@
       <c r="DD40" t="n">
         <v>0</v>
       </c>
-      <c r="DE40" t="inlineStr"/>
+      <c r="DE40" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF40" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG40" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH40" t="inlineStr"/>
+      <c r="DI40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -13653,7 +14063,17 @@
       <c r="DD41" t="n">
         <v>0</v>
       </c>
-      <c r="DE41" t="inlineStr"/>
+      <c r="DE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF41" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG41" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH41" t="inlineStr"/>
+      <c r="DI41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -13988,7 +14408,17 @@
       <c r="DD42" t="n">
         <v>0</v>
       </c>
-      <c r="DE42" t="inlineStr"/>
+      <c r="DE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF42" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG42" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH42" t="inlineStr"/>
+      <c r="DI42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -14299,7 +14729,17 @@
       <c r="DD43" t="n">
         <v>1193.708</v>
       </c>
-      <c r="DE43" t="inlineStr"/>
+      <c r="DE43" t="n">
+        <v>1055.322</v>
+      </c>
+      <c r="DF43" t="n">
+        <v>914.6319999999999</v>
+      </c>
+      <c r="DG43" t="n">
+        <v>877.309</v>
+      </c>
+      <c r="DH43" t="inlineStr"/>
+      <c r="DI43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -14610,7 +15050,17 @@
       <c r="DD44" t="n">
         <v>17.195</v>
       </c>
-      <c r="DE44" t="inlineStr"/>
+      <c r="DE44" t="n">
+        <v>18.852</v>
+      </c>
+      <c r="DF44" t="n">
+        <v>15.626</v>
+      </c>
+      <c r="DG44" t="n">
+        <v>12.742</v>
+      </c>
+      <c r="DH44" t="inlineStr"/>
+      <c r="DI44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -14921,7 +15371,17 @@
       <c r="DD45" t="n">
         <v>348.211</v>
       </c>
-      <c r="DE45" t="inlineStr"/>
+      <c r="DE45" t="n">
+        <v>354.251</v>
+      </c>
+      <c r="DF45" t="n">
+        <v>356.223</v>
+      </c>
+      <c r="DG45" t="n">
+        <v>676.521</v>
+      </c>
+      <c r="DH45" t="inlineStr"/>
+      <c r="DI45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -15232,7 +15692,17 @@
       <c r="DD46" t="n">
         <v>5.016</v>
       </c>
-      <c r="DE46" t="inlineStr"/>
+      <c r="DE46" t="n">
+        <v>6.328</v>
+      </c>
+      <c r="DF46" t="n">
+        <v>6.086</v>
+      </c>
+      <c r="DG46" t="n">
+        <v>9.826000000000001</v>
+      </c>
+      <c r="DH46" t="inlineStr"/>
+      <c r="DI46" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/data_raw/eurostat/AT_electricity_fuel_type_nrg_cb_pem.xlsx
+++ b/data/data_raw/eurostat/AT_electricity_fuel_type_nrg_cb_pem.xlsx
@@ -1337,7 +1337,9 @@
       <c r="DG2" t="n">
         <v>6884.949</v>
       </c>
-      <c r="DH2" t="inlineStr"/>
+      <c r="DH2" t="n">
+        <v>5912.698</v>
+      </c>
       <c r="DI2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -1682,7 +1684,9 @@
       <c r="DG3" t="n">
         <v>864.198</v>
       </c>
-      <c r="DH3" t="inlineStr"/>
+      <c r="DH3" t="n">
+        <v>2037.953</v>
+      </c>
       <c r="DI3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -2027,7 +2031,9 @@
       <c r="DG4" t="n">
         <v>12.552</v>
       </c>
-      <c r="DH4" t="inlineStr"/>
+      <c r="DH4" t="n">
+        <v>34.467</v>
+      </c>
       <c r="DI4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -2348,7 +2354,9 @@
       <c r="DG5" t="n">
         <v>187.677</v>
       </c>
-      <c r="DH5" t="inlineStr"/>
+      <c r="DH5" t="n">
+        <v>228.079</v>
+      </c>
       <c r="DI5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -2669,7 +2677,9 @@
       <c r="DG6" t="n">
         <v>2.726</v>
       </c>
-      <c r="DH6" t="inlineStr"/>
+      <c r="DH6" t="n">
+        <v>3.857</v>
+      </c>
       <c r="DI6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -2990,7 +3000,9 @@
       <c r="DG7" t="n">
         <v>54.479</v>
       </c>
-      <c r="DH7" t="inlineStr"/>
+      <c r="DH7" t="n">
+        <v>60.176</v>
+      </c>
       <c r="DI7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -3311,7 +3323,9 @@
       <c r="DG8" t="n">
         <v>0.791</v>
       </c>
-      <c r="DH8" t="inlineStr"/>
+      <c r="DH8" t="n">
+        <v>1.018</v>
+      </c>
       <c r="DI8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -3632,7 +3646,9 @@
       <c r="DG9" t="n">
         <v>104.517</v>
       </c>
-      <c r="DH9" t="inlineStr"/>
+      <c r="DH9" t="n">
+        <v>116.7</v>
+      </c>
       <c r="DI9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -3953,7 +3969,9 @@
       <c r="DG10" t="n">
         <v>1.518</v>
       </c>
-      <c r="DH10" t="inlineStr"/>
+      <c r="DH10" t="n">
+        <v>1.974</v>
+      </c>
       <c r="DI10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -4274,7 +4292,9 @@
       <c r="DG11" t="n">
         <v>463.556</v>
       </c>
-      <c r="DH11" t="inlineStr"/>
+      <c r="DH11" t="n">
+        <v>1583.811</v>
+      </c>
       <c r="DI11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -4595,7 +4615,9 @@
       <c r="DG12" t="n">
         <v>6.733</v>
       </c>
-      <c r="DH12" t="inlineStr"/>
+      <c r="DH12" t="n">
+        <v>26.787</v>
+      </c>
       <c r="DI12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -4916,7 +4938,9 @@
       <c r="DG13" t="n">
         <v>53.968</v>
       </c>
-      <c r="DH13" t="inlineStr"/>
+      <c r="DH13" t="n">
+        <v>49.187</v>
+      </c>
       <c r="DI13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -5237,7 +5261,9 @@
       <c r="DG14" t="n">
         <v>0.784</v>
       </c>
-      <c r="DH14" t="inlineStr"/>
+      <c r="DH14" t="n">
+        <v>0.832</v>
+      </c>
       <c r="DI14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -5558,7 +5584,9 @@
       <c r="DG15" t="n">
         <v>5331.12</v>
       </c>
-      <c r="DH15" t="inlineStr"/>
+      <c r="DH15" t="n">
+        <v>3796.951</v>
+      </c>
       <c r="DI15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -5879,7 +5907,9 @@
       <c r="DG16" t="n">
         <v>77.432</v>
       </c>
-      <c r="DH16" t="inlineStr"/>
+      <c r="DH16" t="n">
+        <v>64.217</v>
+      </c>
       <c r="DI16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -6224,7 +6254,9 @@
       <c r="DG17" t="n">
         <v>4410.12</v>
       </c>
-      <c r="DH17" t="inlineStr"/>
+      <c r="DH17" t="n">
+        <v>2849.504</v>
+      </c>
       <c r="DI17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -6569,7 +6601,9 @@
       <c r="DG18" t="n">
         <v>64.054</v>
       </c>
-      <c r="DH18" t="inlineStr"/>
+      <c r="DH18" t="n">
+        <v>48.193</v>
+      </c>
       <c r="DI18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -6890,7 +6924,9 @@
       <c r="DG19" t="n">
         <v>2835.644</v>
       </c>
-      <c r="DH19" t="inlineStr"/>
+      <c r="DH19" t="n">
+        <v>1627.195</v>
+      </c>
       <c r="DI19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -7211,7 +7247,9 @@
       <c r="DG20" t="n">
         <v>41.186</v>
       </c>
-      <c r="DH20" t="inlineStr"/>
+      <c r="DH20" t="n">
+        <v>27.52</v>
+      </c>
       <c r="DI20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -7532,7 +7570,9 @@
       <c r="DG21" t="n">
         <v>1574.476</v>
       </c>
-      <c r="DH21" t="inlineStr"/>
+      <c r="DH21" t="n">
+        <v>1222.309</v>
+      </c>
       <c r="DI21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -7853,7 +7893,9 @@
       <c r="DG22" t="n">
         <v>22.868</v>
       </c>
-      <c r="DH22" t="inlineStr"/>
+      <c r="DH22" t="n">
+        <v>20.673</v>
+      </c>
       <c r="DI22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -8174,7 +8216,9 @@
       <c r="DG23" t="n">
         <v>0</v>
       </c>
-      <c r="DH23" t="inlineStr"/>
+      <c r="DH23" t="n">
+        <v>0</v>
+      </c>
       <c r="DI23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -8495,7 +8539,9 @@
       <c r="DG24" t="n">
         <v>0</v>
       </c>
-      <c r="DH24" t="inlineStr"/>
+      <c r="DH24" t="n">
+        <v>0</v>
+      </c>
       <c r="DI24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -8840,7 +8886,9 @@
       <c r="DG25" t="n">
         <v>0</v>
       </c>
-      <c r="DH25" t="inlineStr"/>
+      <c r="DH25" t="n">
+        <v>0</v>
+      </c>
       <c r="DI25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -9185,7 +9233,9 @@
       <c r="DG26" t="n">
         <v>0</v>
       </c>
-      <c r="DH26" t="inlineStr"/>
+      <c r="DH26" t="n">
+        <v>0</v>
+      </c>
       <c r="DI26" t="inlineStr"/>
     </row>
     <row r="27">
@@ -9530,7 +9580,9 @@
       <c r="DG27" t="n">
         <v>733.323</v>
       </c>
-      <c r="DH27" t="inlineStr"/>
+      <c r="DH27" t="n">
+        <v>719.3680000000001</v>
+      </c>
       <c r="DI27" t="inlineStr"/>
     </row>
     <row r="28">
@@ -9875,7 +9927,9 @@
       <c r="DG28" t="n">
         <v>10.651</v>
       </c>
-      <c r="DH28" t="inlineStr"/>
+      <c r="DH28" t="n">
+        <v>12.166</v>
+      </c>
       <c r="DI28" t="inlineStr"/>
     </row>
     <row r="29">
@@ -10196,7 +10250,9 @@
       <c r="DG29" t="n">
         <v>733.323</v>
       </c>
-      <c r="DH29" t="inlineStr"/>
+      <c r="DH29" t="n">
+        <v>719.3680000000001</v>
+      </c>
       <c r="DI29" t="inlineStr"/>
     </row>
     <row r="30">
@@ -10517,7 +10573,9 @@
       <c r="DG30" t="n">
         <v>10.651</v>
       </c>
-      <c r="DH30" t="inlineStr"/>
+      <c r="DH30" t="n">
+        <v>12.166</v>
+      </c>
       <c r="DI30" t="inlineStr"/>
     </row>
     <row r="31">
@@ -10838,7 +10896,9 @@
       <c r="DG31" t="n">
         <v>0</v>
       </c>
-      <c r="DH31" t="inlineStr"/>
+      <c r="DH31" t="n">
+        <v>0</v>
+      </c>
       <c r="DI31" t="inlineStr"/>
     </row>
     <row r="32">
@@ -11159,7 +11219,9 @@
       <c r="DG32" t="n">
         <v>0</v>
       </c>
-      <c r="DH32" t="inlineStr"/>
+      <c r="DH32" t="n">
+        <v>0</v>
+      </c>
       <c r="DI32" t="inlineStr"/>
     </row>
     <row r="33">
@@ -11480,7 +11542,9 @@
       <c r="DG33" t="n">
         <v>0</v>
       </c>
-      <c r="DH33" t="inlineStr"/>
+      <c r="DH33" t="n">
+        <v>0</v>
+      </c>
       <c r="DI33" t="inlineStr"/>
     </row>
     <row r="34">
@@ -11801,7 +11865,9 @@
       <c r="DG34" t="n">
         <v>0</v>
       </c>
-      <c r="DH34" t="inlineStr"/>
+      <c r="DH34" t="n">
+        <v>0</v>
+      </c>
       <c r="DI34" t="inlineStr"/>
     </row>
     <row r="35">
@@ -12122,7 +12188,9 @@
       <c r="DG35" t="n">
         <v>0</v>
       </c>
-      <c r="DH35" t="inlineStr"/>
+      <c r="DH35" t="n">
+        <v>0</v>
+      </c>
       <c r="DI35" t="inlineStr"/>
     </row>
     <row r="36">
@@ -12443,7 +12511,9 @@
       <c r="DG36" t="n">
         <v>0</v>
       </c>
-      <c r="DH36" t="inlineStr"/>
+      <c r="DH36" t="n">
+        <v>0</v>
+      </c>
       <c r="DI36" t="inlineStr"/>
     </row>
     <row r="37">
@@ -12764,7 +12834,9 @@
       <c r="DG37" t="n">
         <v>0</v>
       </c>
-      <c r="DH37" t="inlineStr"/>
+      <c r="DH37" t="n">
+        <v>0</v>
+      </c>
       <c r="DI37" t="inlineStr"/>
     </row>
     <row r="38">
@@ -13085,7 +13157,9 @@
       <c r="DG38" t="n">
         <v>0</v>
       </c>
-      <c r="DH38" t="inlineStr"/>
+      <c r="DH38" t="n">
+        <v>0</v>
+      </c>
       <c r="DI38" t="inlineStr"/>
     </row>
     <row r="39">
@@ -13406,7 +13480,9 @@
       <c r="DG39" t="n">
         <v>0</v>
       </c>
-      <c r="DH39" t="inlineStr"/>
+      <c r="DH39" t="n">
+        <v>0</v>
+      </c>
       <c r="DI39" t="inlineStr"/>
     </row>
     <row r="40">
@@ -13727,7 +13803,9 @@
       <c r="DG40" t="n">
         <v>0</v>
       </c>
-      <c r="DH40" t="inlineStr"/>
+      <c r="DH40" t="n">
+        <v>0</v>
+      </c>
       <c r="DI40" t="inlineStr"/>
     </row>
     <row r="41">
@@ -14072,7 +14150,9 @@
       <c r="DG41" t="n">
         <v>0</v>
       </c>
-      <c r="DH41" t="inlineStr"/>
+      <c r="DH41" t="n">
+        <v>0</v>
+      </c>
       <c r="DI41" t="inlineStr"/>
     </row>
     <row r="42">
@@ -14417,7 +14497,9 @@
       <c r="DG42" t="n">
         <v>0</v>
       </c>
-      <c r="DH42" t="inlineStr"/>
+      <c r="DH42" t="n">
+        <v>0</v>
+      </c>
       <c r="DI42" t="inlineStr"/>
     </row>
     <row r="43">
@@ -14738,7 +14820,9 @@
       <c r="DG43" t="n">
         <v>877.309</v>
       </c>
-      <c r="DH43" t="inlineStr"/>
+      <c r="DH43" t="n">
+        <v>305.873</v>
+      </c>
       <c r="DI43" t="inlineStr"/>
     </row>
     <row r="44">
@@ -15059,7 +15143,9 @@
       <c r="DG44" t="n">
         <v>12.742</v>
       </c>
-      <c r="DH44" t="inlineStr"/>
+      <c r="DH44" t="n">
+        <v>5.173</v>
+      </c>
       <c r="DI44" t="inlineStr"/>
     </row>
     <row r="45">
@@ -15098,258 +15184,90 @@
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="n">
-        <v>2886.795</v>
-      </c>
-      <c r="S45" t="n">
-        <v>2042.575</v>
-      </c>
-      <c r="T45" t="n">
-        <v>1415.235</v>
-      </c>
-      <c r="U45" t="n">
-        <v>924.0309999999999</v>
-      </c>
-      <c r="V45" t="n">
-        <v>512.633</v>
-      </c>
-      <c r="W45" t="n">
-        <v>754.703</v>
-      </c>
-      <c r="X45" t="n">
-        <v>730.986</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>708.6900000000001</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>731.226</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>1232.631</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>1665.096</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>1571.162</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>1685.875</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>1807.219</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>1525.474</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>658.307</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>521.317</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>539.201</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>562.87</v>
-      </c>
-      <c r="AK45" t="n">
-        <v>651.7619999999999</v>
-      </c>
-      <c r="AL45" t="n">
-        <v>829.513</v>
-      </c>
-      <c r="AM45" t="n">
-        <v>1289.652</v>
-      </c>
-      <c r="AN45" t="n">
-        <v>1693.066</v>
-      </c>
-      <c r="AO45" t="n">
-        <v>2067.953</v>
-      </c>
-      <c r="AP45" t="n">
-        <v>2104.01</v>
-      </c>
-      <c r="AQ45" t="n">
-        <v>1729.722</v>
-      </c>
-      <c r="AR45" t="n">
-        <v>1115.89</v>
-      </c>
-      <c r="AS45" t="n">
-        <v>946.54</v>
-      </c>
-      <c r="AT45" t="n">
-        <v>501.579</v>
-      </c>
-      <c r="AU45" t="n">
-        <v>595.061</v>
-      </c>
-      <c r="AV45" t="n">
-        <v>915.667</v>
-      </c>
-      <c r="AW45" t="n">
-        <v>981.023</v>
-      </c>
-      <c r="AX45" t="n">
-        <v>1221.543</v>
-      </c>
-      <c r="AY45" t="n">
-        <v>1659.741</v>
-      </c>
-      <c r="AZ45" t="n">
-        <v>1611.618</v>
-      </c>
-      <c r="BA45" t="n">
-        <v>1625.761</v>
-      </c>
-      <c r="BB45" t="n">
-        <v>2176.149</v>
-      </c>
-      <c r="BC45" t="n">
-        <v>1365.271</v>
-      </c>
-      <c r="BD45" t="n">
-        <v>1326.128</v>
-      </c>
-      <c r="BE45" t="n">
-        <v>642.4589999999999</v>
-      </c>
-      <c r="BF45" t="n">
-        <v>385.718</v>
-      </c>
-      <c r="BG45" t="n">
-        <v>389.216</v>
-      </c>
-      <c r="BH45" t="n">
-        <v>681.49</v>
-      </c>
-      <c r="BI45" t="n">
-        <v>660.587</v>
-      </c>
-      <c r="BJ45" t="n">
-        <v>638.338</v>
-      </c>
-      <c r="BK45" t="n">
-        <v>1043.276</v>
-      </c>
-      <c r="BL45" t="n">
-        <v>1409.625</v>
-      </c>
-      <c r="BM45" t="n">
-        <v>1716.962</v>
-      </c>
-      <c r="BN45" t="n">
-        <v>1739.42</v>
-      </c>
-      <c r="BO45" t="n">
-        <v>1400.617</v>
-      </c>
-      <c r="BP45" t="n">
-        <v>1386.085</v>
-      </c>
-      <c r="BQ45" t="n">
-        <v>1090.851</v>
-      </c>
-      <c r="BR45" t="n">
-        <v>606.428</v>
-      </c>
-      <c r="BS45" t="n">
-        <v>434.055</v>
-      </c>
-      <c r="BT45" t="n">
-        <v>429.923</v>
-      </c>
-      <c r="BU45" t="n">
-        <v>429.266</v>
-      </c>
-      <c r="BV45" t="n">
-        <v>530.707</v>
-      </c>
-      <c r="BW45" t="n">
-        <v>1192.408</v>
-      </c>
-      <c r="BX45" t="n">
-        <v>1907.587</v>
-      </c>
-      <c r="BY45" t="n">
-        <v>1834.095</v>
-      </c>
-      <c r="BZ45" t="n">
-        <v>1870.725</v>
-      </c>
-      <c r="CA45" t="n">
-        <v>1531.993</v>
-      </c>
-      <c r="CB45" t="n">
-        <v>1741.628</v>
-      </c>
-      <c r="CC45" t="n">
-        <v>964.197</v>
-      </c>
-      <c r="CD45" t="n">
-        <v>755.325</v>
-      </c>
-      <c r="CE45" t="n">
-        <v>459.752</v>
-      </c>
-      <c r="CF45" t="n">
-        <v>478.598</v>
-      </c>
-      <c r="CG45" t="n">
-        <v>466.907</v>
-      </c>
-      <c r="CH45" t="n">
-        <v>890.35</v>
-      </c>
-      <c r="CI45" t="n">
-        <v>931.806</v>
-      </c>
-      <c r="CJ45" t="n">
-        <v>1448.695</v>
-      </c>
-      <c r="CK45" t="n">
-        <v>1578.385</v>
-      </c>
-      <c r="CL45" t="n">
-        <v>1353.003</v>
-      </c>
-      <c r="CM45" t="n">
-        <v>1312.698</v>
-      </c>
-      <c r="CN45" t="n">
-        <v>1106.011</v>
-      </c>
-      <c r="CO45" t="n">
-        <v>921.059</v>
-      </c>
-      <c r="CP45" t="n">
-        <v>559.2569999999999</v>
-      </c>
-      <c r="CQ45" t="n">
-        <v>334.697</v>
-      </c>
-      <c r="CR45" t="n">
-        <v>427.682</v>
-      </c>
-      <c r="CS45" t="n">
-        <v>297.32</v>
-      </c>
-      <c r="CT45" t="n">
-        <v>536.586</v>
-      </c>
-      <c r="CU45" t="n">
-        <v>747.47</v>
-      </c>
-      <c r="CV45" t="n">
-        <v>1039.719</v>
-      </c>
-      <c r="CW45" t="n">
-        <v>1273.122</v>
-      </c>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
+      <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr"/>
+      <c r="Z45" t="inlineStr"/>
+      <c r="AA45" t="inlineStr"/>
+      <c r="AB45" t="inlineStr"/>
+      <c r="AC45" t="inlineStr"/>
+      <c r="AD45" t="inlineStr"/>
+      <c r="AE45" t="inlineStr"/>
+      <c r="AF45" t="inlineStr"/>
+      <c r="AG45" t="inlineStr"/>
+      <c r="AH45" t="inlineStr"/>
+      <c r="AI45" t="inlineStr"/>
+      <c r="AJ45" t="inlineStr"/>
+      <c r="AK45" t="inlineStr"/>
+      <c r="AL45" t="inlineStr"/>
+      <c r="AM45" t="inlineStr"/>
+      <c r="AN45" t="inlineStr"/>
+      <c r="AO45" t="inlineStr"/>
+      <c r="AP45" t="inlineStr"/>
+      <c r="AQ45" t="inlineStr"/>
+      <c r="AR45" t="inlineStr"/>
+      <c r="AS45" t="inlineStr"/>
+      <c r="AT45" t="inlineStr"/>
+      <c r="AU45" t="inlineStr"/>
+      <c r="AV45" t="inlineStr"/>
+      <c r="AW45" t="inlineStr"/>
+      <c r="AX45" t="inlineStr"/>
+      <c r="AY45" t="inlineStr"/>
+      <c r="AZ45" t="inlineStr"/>
+      <c r="BA45" t="inlineStr"/>
+      <c r="BB45" t="inlineStr"/>
+      <c r="BC45" t="inlineStr"/>
+      <c r="BD45" t="inlineStr"/>
+      <c r="BE45" t="inlineStr"/>
+      <c r="BF45" t="inlineStr"/>
+      <c r="BG45" t="inlineStr"/>
+      <c r="BH45" t="inlineStr"/>
+      <c r="BI45" t="inlineStr"/>
+      <c r="BJ45" t="inlineStr"/>
+      <c r="BK45" t="inlineStr"/>
+      <c r="BL45" t="inlineStr"/>
+      <c r="BM45" t="inlineStr"/>
+      <c r="BN45" t="inlineStr"/>
+      <c r="BO45" t="inlineStr"/>
+      <c r="BP45" t="inlineStr"/>
+      <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
+      <c r="BS45" t="inlineStr"/>
+      <c r="BT45" t="inlineStr"/>
+      <c r="BU45" t="inlineStr"/>
+      <c r="BV45" t="inlineStr"/>
+      <c r="BW45" t="inlineStr"/>
+      <c r="BX45" t="inlineStr"/>
+      <c r="BY45" t="inlineStr"/>
+      <c r="BZ45" t="inlineStr"/>
+      <c r="CA45" t="inlineStr"/>
+      <c r="CB45" t="inlineStr"/>
+      <c r="CC45" t="inlineStr"/>
+      <c r="CD45" t="inlineStr"/>
+      <c r="CE45" t="inlineStr"/>
+      <c r="CF45" t="inlineStr"/>
+      <c r="CG45" t="inlineStr"/>
+      <c r="CH45" t="inlineStr"/>
+      <c r="CI45" t="inlineStr"/>
+      <c r="CJ45" t="inlineStr"/>
+      <c r="CK45" t="inlineStr"/>
+      <c r="CL45" t="inlineStr"/>
+      <c r="CM45" t="inlineStr"/>
+      <c r="CN45" t="inlineStr"/>
+      <c r="CO45" t="inlineStr"/>
+      <c r="CP45" t="inlineStr"/>
+      <c r="CQ45" t="inlineStr"/>
+      <c r="CR45" t="inlineStr"/>
+      <c r="CS45" t="inlineStr"/>
+      <c r="CT45" t="inlineStr"/>
+      <c r="CU45" t="inlineStr"/>
+      <c r="CV45" t="inlineStr"/>
+      <c r="CW45" t="inlineStr"/>
       <c r="CX45" t="n">
         <v>1516.594</v>
       </c>
@@ -15380,7 +15298,9 @@
       <c r="DG45" t="n">
         <v>676.521</v>
       </c>
-      <c r="DH45" t="inlineStr"/>
+      <c r="DH45" t="n">
+        <v>1809.874</v>
+      </c>
       <c r="DI45" t="inlineStr"/>
     </row>
     <row r="46">
@@ -15419,258 +15339,90 @@
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="n">
-        <v>45.893</v>
-      </c>
-      <c r="S46" t="n">
-        <v>41.238</v>
-      </c>
-      <c r="T46" t="n">
-        <v>25.169</v>
-      </c>
-      <c r="U46" t="n">
-        <v>18.027</v>
-      </c>
-      <c r="V46" t="n">
-        <v>9.116</v>
-      </c>
-      <c r="W46" t="n">
-        <v>14.246</v>
-      </c>
-      <c r="X46" t="n">
-        <v>13.205</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>11.789</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>11.897</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>21.63</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>27.805</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>26.714</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>26.11</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>31.84</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>28.329</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>11.249</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>8.454000000000001</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>9.442</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>15.283</v>
-      </c>
-      <c r="AL46" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="AM46" t="n">
-        <v>25.804</v>
-      </c>
-      <c r="AN46" t="n">
-        <v>31.413</v>
-      </c>
-      <c r="AO46" t="n">
-        <v>33.336</v>
-      </c>
-      <c r="AP46" t="n">
-        <v>31.622</v>
-      </c>
-      <c r="AQ46" t="n">
-        <v>31.469</v>
-      </c>
-      <c r="AR46" t="n">
-        <v>18.434</v>
-      </c>
-      <c r="AS46" t="n">
-        <v>15.083</v>
-      </c>
-      <c r="AT46" t="n">
-        <v>8.010999999999999</v>
-      </c>
-      <c r="AU46" t="n">
-        <v>9.052</v>
-      </c>
-      <c r="AV46" t="n">
-        <v>15.708</v>
-      </c>
-      <c r="AW46" t="n">
-        <v>17.705</v>
-      </c>
-      <c r="AX46" t="n">
-        <v>23.218</v>
-      </c>
-      <c r="AY46" t="n">
-        <v>30.865</v>
-      </c>
-      <c r="AZ46" t="n">
-        <v>26.908</v>
-      </c>
-      <c r="BA46" t="n">
-        <v>28.522</v>
-      </c>
-      <c r="BB46" t="n">
-        <v>37.661</v>
-      </c>
-      <c r="BC46" t="n">
-        <v>23.313</v>
-      </c>
-      <c r="BD46" t="n">
-        <v>22.624</v>
-      </c>
-      <c r="BE46" t="n">
-        <v>13.261</v>
-      </c>
-      <c r="BF46" t="n">
-        <v>6.906</v>
-      </c>
-      <c r="BG46" t="n">
-        <v>6.367</v>
-      </c>
-      <c r="BH46" t="n">
-        <v>10.816</v>
-      </c>
-      <c r="BI46" t="n">
-        <v>11.078</v>
-      </c>
-      <c r="BJ46" t="n">
-        <v>11.021</v>
-      </c>
-      <c r="BK46" t="n">
-        <v>16.839</v>
-      </c>
-      <c r="BL46" t="n">
-        <v>25.445</v>
-      </c>
-      <c r="BM46" t="n">
-        <v>30.813</v>
-      </c>
-      <c r="BN46" t="n">
-        <v>32.161</v>
-      </c>
-      <c r="BO46" t="n">
-        <v>26.729</v>
-      </c>
-      <c r="BP46" t="n">
-        <v>27.04</v>
-      </c>
-      <c r="BQ46" t="n">
-        <v>21.283</v>
-      </c>
-      <c r="BR46" t="n">
-        <v>9.420999999999999</v>
-      </c>
-      <c r="BS46" t="n">
-        <v>6.89</v>
-      </c>
-      <c r="BT46" t="n">
-        <v>7.094</v>
-      </c>
-      <c r="BU46" t="n">
-        <v>6.726</v>
-      </c>
-      <c r="BV46" t="n">
-        <v>11.156</v>
-      </c>
-      <c r="BW46" t="n">
-        <v>23.708</v>
-      </c>
-      <c r="BX46" t="n">
-        <v>33.99</v>
-      </c>
-      <c r="BY46" t="n">
-        <v>32.201</v>
-      </c>
-      <c r="BZ46" t="n">
-        <v>29.436</v>
-      </c>
-      <c r="CA46" t="n">
-        <v>28.318</v>
-      </c>
-      <c r="CB46" t="n">
-        <v>31.17</v>
-      </c>
-      <c r="CC46" t="n">
-        <v>17.156</v>
-      </c>
-      <c r="CD46" t="n">
-        <v>12.496</v>
-      </c>
-      <c r="CE46" t="n">
-        <v>7.945</v>
-      </c>
-      <c r="CF46" t="n">
-        <v>9.536</v>
-      </c>
-      <c r="CG46" t="n">
-        <v>10.012</v>
-      </c>
-      <c r="CH46" t="n">
-        <v>17.249</v>
-      </c>
-      <c r="CI46" t="n">
-        <v>18.058</v>
-      </c>
-      <c r="CJ46" t="n">
-        <v>29.163</v>
-      </c>
-      <c r="CK46" t="n">
-        <v>29.841</v>
-      </c>
-      <c r="CL46" t="n">
-        <v>24.998</v>
-      </c>
-      <c r="CM46" t="n">
-        <v>25.331</v>
-      </c>
-      <c r="CN46" t="n">
-        <v>19.893</v>
-      </c>
-      <c r="CO46" t="n">
-        <v>15.968</v>
-      </c>
-      <c r="CP46" t="n">
-        <v>7.941</v>
-      </c>
-      <c r="CQ46" t="n">
-        <v>5.779</v>
-      </c>
-      <c r="CR46" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="CS46" t="n">
-        <v>4.876</v>
-      </c>
-      <c r="CT46" t="n">
-        <v>10.193</v>
-      </c>
-      <c r="CU46" t="n">
-        <v>15.698</v>
-      </c>
-      <c r="CV46" t="n">
-        <v>16.375</v>
-      </c>
-      <c r="CW46" t="n">
-        <v>19.598</v>
-      </c>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
+      <c r="X46" t="inlineStr"/>
+      <c r="Y46" t="inlineStr"/>
+      <c r="Z46" t="inlineStr"/>
+      <c r="AA46" t="inlineStr"/>
+      <c r="AB46" t="inlineStr"/>
+      <c r="AC46" t="inlineStr"/>
+      <c r="AD46" t="inlineStr"/>
+      <c r="AE46" t="inlineStr"/>
+      <c r="AF46" t="inlineStr"/>
+      <c r="AG46" t="inlineStr"/>
+      <c r="AH46" t="inlineStr"/>
+      <c r="AI46" t="inlineStr"/>
+      <c r="AJ46" t="inlineStr"/>
+      <c r="AK46" t="inlineStr"/>
+      <c r="AL46" t="inlineStr"/>
+      <c r="AM46" t="inlineStr"/>
+      <c r="AN46" t="inlineStr"/>
+      <c r="AO46" t="inlineStr"/>
+      <c r="AP46" t="inlineStr"/>
+      <c r="AQ46" t="inlineStr"/>
+      <c r="AR46" t="inlineStr"/>
+      <c r="AS46" t="inlineStr"/>
+      <c r="AT46" t="inlineStr"/>
+      <c r="AU46" t="inlineStr"/>
+      <c r="AV46" t="inlineStr"/>
+      <c r="AW46" t="inlineStr"/>
+      <c r="AX46" t="inlineStr"/>
+      <c r="AY46" t="inlineStr"/>
+      <c r="AZ46" t="inlineStr"/>
+      <c r="BA46" t="inlineStr"/>
+      <c r="BB46" t="inlineStr"/>
+      <c r="BC46" t="inlineStr"/>
+      <c r="BD46" t="inlineStr"/>
+      <c r="BE46" t="inlineStr"/>
+      <c r="BF46" t="inlineStr"/>
+      <c r="BG46" t="inlineStr"/>
+      <c r="BH46" t="inlineStr"/>
+      <c r="BI46" t="inlineStr"/>
+      <c r="BJ46" t="inlineStr"/>
+      <c r="BK46" t="inlineStr"/>
+      <c r="BL46" t="inlineStr"/>
+      <c r="BM46" t="inlineStr"/>
+      <c r="BN46" t="inlineStr"/>
+      <c r="BO46" t="inlineStr"/>
+      <c r="BP46" t="inlineStr"/>
+      <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr"/>
+      <c r="BS46" t="inlineStr"/>
+      <c r="BT46" t="inlineStr"/>
+      <c r="BU46" t="inlineStr"/>
+      <c r="BV46" t="inlineStr"/>
+      <c r="BW46" t="inlineStr"/>
+      <c r="BX46" t="inlineStr"/>
+      <c r="BY46" t="inlineStr"/>
+      <c r="BZ46" t="inlineStr"/>
+      <c r="CA46" t="inlineStr"/>
+      <c r="CB46" t="inlineStr"/>
+      <c r="CC46" t="inlineStr"/>
+      <c r="CD46" t="inlineStr"/>
+      <c r="CE46" t="inlineStr"/>
+      <c r="CF46" t="inlineStr"/>
+      <c r="CG46" t="inlineStr"/>
+      <c r="CH46" t="inlineStr"/>
+      <c r="CI46" t="inlineStr"/>
+      <c r="CJ46" t="inlineStr"/>
+      <c r="CK46" t="inlineStr"/>
+      <c r="CL46" t="inlineStr"/>
+      <c r="CM46" t="inlineStr"/>
+      <c r="CN46" t="inlineStr"/>
+      <c r="CO46" t="inlineStr"/>
+      <c r="CP46" t="inlineStr"/>
+      <c r="CQ46" t="inlineStr"/>
+      <c r="CR46" t="inlineStr"/>
+      <c r="CS46" t="inlineStr"/>
+      <c r="CT46" t="inlineStr"/>
+      <c r="CU46" t="inlineStr"/>
+      <c r="CV46" t="inlineStr"/>
+      <c r="CW46" t="inlineStr"/>
       <c r="CX46" t="n">
         <v>20.947</v>
       </c>
@@ -15701,7 +15453,9 @@
       <c r="DG46" t="n">
         <v>9.826000000000001</v>
       </c>
-      <c r="DH46" t="inlineStr"/>
+      <c r="DH46" t="n">
+        <v>30.61</v>
+      </c>
       <c r="DI46" t="inlineStr"/>
     </row>
   </sheetData>
